--- a/biology/Zoologie/Calumma_parsonii/Calumma_parsonii.xlsx
+++ b/biology/Zoologie/Calumma_parsonii/Calumma_parsonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caméléon de Parson
-Calumma parsonii, le Caméléon de Parson est une espèce de sauriens de la famille des Chamaeleonidae[1].
+Calumma parsonii, le Caméléon de Parson est une espèce de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord et de l'Est de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord et de l'Est de Madagascar.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce grand caméléon atteint 68 cm.
 Les femelles pondent de 20 à 25 œufs tous les deux ans.
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (17 août 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (17 août 2015) :
 Calumma parsonii cristifer (Methuen &amp; Hewitt, 1913)
 Calumma parsonii parsonii (Cuvier, 1825)</t>
         </is>
@@ -607,9 +625,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de James Parsons[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de James Parsons.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cuvier, 1825 : Recherches sur les ossemens fossiles de quadrupèdes, où l'on rétablit les caractères du plusieurs espèces d'animaux que les révolutions du globe paroissent avoir détruites. Dufour &amp; d'Ocagne, Paris, ed. 3, vol. 5 (texte intégral).
 Methuen &amp; Hewitt, 1913 : On a collection of reptiles from Madagascar made during the year 1911. Annals of the Transvaal Museum, vol. 3, no 4, p. 183-193 (texte intégral).</t>
